--- a/biology/Médecine/Ligament_métacarpien_transverse_superficiel/Ligament_métacarpien_transverse_superficiel.xlsx
+++ b/biology/Médecine/Ligament_métacarpien_transverse_superficiel/Ligament_métacarpien_transverse_superficiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_m%C3%A9tacarpien_transverse_superficiel</t>
+          <t>Ligament_métacarpien_transverse_superficiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le ligament métacarpien transverse superficiel (ou ligament transverse superficiel de la paume) est une fine bande de fibres transversales de la partie distale de l'aponévrose palmaire. Il est profond et transversal aux bandes prétendineuses orientées longitudinalement du complexe fascial palmaire.
